--- a/data/trans_dic/P62A$otras-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P62A$otras-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,49</t>
+          <t>0,0; 2,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 10,27</t>
+          <t>3,33; 10,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 10,97</t>
+          <t>3,13; 10,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,85; 28,08</t>
+          <t>16,61; 28,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 8,6</t>
+          <t>1,43; 9,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 15,88</t>
+          <t>6,15; 16,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 17,59</t>
+          <t>6,85; 17,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,7; 21,93</t>
+          <t>13,5; 22,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,08</t>
+          <t>0,9; 4,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,16</t>
+          <t>5,45; 11,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 12,03</t>
+          <t>5,4; 11,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,26; 23,61</t>
+          <t>16,39; 23,42</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,22</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 13,47</t>
+          <t>5,77; 14,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 10,65</t>
+          <t>4,09; 10,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,1; 37,58</t>
+          <t>26,2; 37,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 8,99</t>
+          <t>1,65; 9,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 21,01</t>
+          <t>9,82; 20,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 19,45</t>
+          <t>9,94; 20,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,71; 24,26</t>
+          <t>15,8; 24,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,47</t>
+          <t>0,7; 3,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 14,81</t>
+          <t>8,53; 14,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 13,26</t>
+          <t>7,62; 13,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,17; 29,08</t>
+          <t>22,2; 29,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,52</t>
+          <t>0,0; 4,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 12,35</t>
+          <t>3,42; 12,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 11,43</t>
+          <t>3,52; 11,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,48; 38,63</t>
+          <t>26,45; 39,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 11,81</t>
+          <t>3,04; 12,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 21,1</t>
+          <t>9,07; 21,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 17,15</t>
+          <t>5,43; 16,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 24,79</t>
+          <t>2,15; 24,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,3</t>
+          <t>1,75; 6,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 14,65</t>
+          <t>6,93; 13,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 11,46</t>
+          <t>5,2; 11,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 29,78</t>
+          <t>6,83; 30,1</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,6</t>
+          <t>0,45; 3,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 9,09</t>
+          <t>2,95; 8,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,05; 10,36</t>
+          <t>4,08; 10,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,25; 40,33</t>
+          <t>29,02; 39,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,86</t>
+          <t>2,17; 8,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,73; 17,58</t>
+          <t>8,51; 17,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 25,38</t>
+          <t>14,74; 25,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,81; 26,74</t>
+          <t>18,85; 27,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,34</t>
+          <t>1,66; 5,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 11,9</t>
+          <t>6,33; 12,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,19; 16,14</t>
+          <t>10,11; 16,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,25; 31,77</t>
+          <t>24,88; 31,72</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,73</t>
+          <t>0,37; 1,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,84</t>
+          <t>5,23; 8,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,45</t>
+          <t>4,91; 8,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,26; 32,99</t>
+          <t>27,24; 33,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,97</t>
+          <t>3,21; 6,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,97</t>
+          <t>10,5; 15,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,05; 17,52</t>
+          <t>12,16; 17,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,26; 21,59</t>
+          <t>8,28; 21,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,56</t>
+          <t>1,8; 3,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,15; 11,23</t>
+          <t>8,17; 11,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,79; 11,82</t>
+          <t>8,71; 12,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,35; 26,29</t>
+          <t>14,7; 26,17</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe otro tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12798</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11105</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>39261</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4899</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16527</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17084</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29568</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5881</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>29325</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28189</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>68828</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4947</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7046; 21750</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5925; 19774</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29895; 50545</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1806; 11398</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10092; 26885</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10216; 26572</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22960; 37746</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2677; 12578</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20482; 44151</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18274; 40007</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>57372; 81997</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22243</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18378</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>61790</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>29907</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29122</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>36060</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52150</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>47500</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>97850</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4572</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14203; 34605</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10822; 27584</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>51927; 74000</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2529; 14538</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20600; 42445</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>20260; 41173</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29149; 44901</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2639; 13988</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>38875; 68021</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>35711; 62328</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>84935; 111284</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11325</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11976</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64840</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7775</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20773</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13515</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33210</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9766</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32098</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25492</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>98050</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7207</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5775; 21738</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6409; 20814</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>53133; 78535</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3642; 15323</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13411; 31466</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7349; 22442</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7485; 86474</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4795; 17294</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21936; 44075</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16517; 35464</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>37450; 165040</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2598</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12905</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>17912</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>76448</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8329</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>28869</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>48666</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>53350</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10927</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>41774</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>66578</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>129798</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>854; 6920</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7230; 21540</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10806; 28518</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>64571; 88686</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3825; 15424</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19105; 38813</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36643; 62928</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>44401; 63680</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6071; 18930</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>29690; 57463</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>51943; 83070</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>113953; 145290</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6458</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>59271</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>59372</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>242339</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>27202</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>96076</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>108387</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>152188</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>33660</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>155347</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>167759</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>394527</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2732; 12874</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>45598; 77561</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>44216; 74670</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>218331; 265915</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18477; 38851</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>78344; 115435</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>89612; 128867</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>77601; 201462</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23706; 46446</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>132079; 182666</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>142716; 196679</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>255724; 455137</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>